--- a/data/analysis/social_media_analytics/pivot_tables/accreditation/museum_activity_groups__var1-accreditation.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/accreditation/museum_activity_groups__var1-accreditation.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
   <si>
     <t>msg_count_twitter</t>
+  </si>
+  <si>
+    <t>msg_count_twitter_engage</t>
   </si>
   <si>
     <t>msg_count_facebook</t>
@@ -425,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AN5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:40">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -463,144 +466,198 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
+      <c r="AB1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:40">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="AN2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:40">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:40">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>3157264</v>
+        <v>1573838</v>
       </c>
       <c r="C4">
-        <v>1912.3</v>
+        <v>953.3</v>
       </c>
       <c r="D4">
-        <v>4993.7</v>
+        <v>2300.1</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>466</v>
+        <v>286</v>
       </c>
       <c r="H4">
-        <v>1718</v>
+        <v>1075</v>
       </c>
       <c r="I4">
-        <v>74441</v>
+        <v>47580</v>
       </c>
       <c r="J4">
         <v>1651</v>
       </c>
       <c r="K4">
-        <v>2536</v>
+        <v>1366.2</v>
       </c>
       <c r="L4">
-        <v>1245</v>
+        <v>1152</v>
       </c>
       <c r="M4">
-        <v>75.40000000000001</v>
+        <v>69.8</v>
       </c>
       <c r="N4">
         <v>0.7</v>
       </c>
       <c r="O4">
-        <v>632428</v>
+        <v>573014</v>
       </c>
       <c r="P4">
-        <v>383.1</v>
+        <v>347.1</v>
       </c>
       <c r="Q4">
-        <v>788</v>
+        <v>1555.8</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -609,42 +666,81 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="U4">
-        <v>561</v>
+        <v>236.5</v>
       </c>
       <c r="V4">
-        <v>13336</v>
+        <v>46992</v>
       </c>
       <c r="W4">
         <v>1651</v>
       </c>
       <c r="X4">
-        <v>895.8</v>
+        <v>491.9</v>
       </c>
       <c r="Y4">
-        <v>706</v>
+        <v>1165</v>
       </c>
       <c r="Z4">
-        <v>42.8</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="AA4">
         <v>0.7</v>
       </c>
+      <c r="AB4">
+        <v>632428</v>
+      </c>
+      <c r="AC4">
+        <v>383.1</v>
+      </c>
+      <c r="AD4">
+        <v>788</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>561</v>
+      </c>
+      <c r="AI4">
+        <v>13336</v>
+      </c>
+      <c r="AJ4">
+        <v>1651</v>
+      </c>
+      <c r="AK4">
+        <v>895.8</v>
+      </c>
+      <c r="AL4">
+        <v>706</v>
+      </c>
+      <c r="AM4">
+        <v>42.8</v>
+      </c>
+      <c r="AN4">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:40">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>2285687</v>
+        <v>829991</v>
       </c>
       <c r="C5">
-        <v>1354.1</v>
+        <v>491.7</v>
       </c>
       <c r="D5">
-        <v>4751.2</v>
+        <v>1651</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -653,37 +749,37 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>22.5</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>740</v>
+        <v>424.2</v>
       </c>
       <c r="I5">
-        <v>72982</v>
+        <v>47571</v>
       </c>
       <c r="J5">
         <v>1688</v>
       </c>
       <c r="K5">
-        <v>2354</v>
+        <v>970.7</v>
       </c>
       <c r="L5">
-        <v>971</v>
+        <v>855</v>
       </c>
       <c r="M5">
-        <v>57.5</v>
+        <v>50.7</v>
       </c>
       <c r="N5">
         <v>-0.7</v>
       </c>
       <c r="O5">
-        <v>554188</v>
+        <v>336048</v>
       </c>
       <c r="P5">
-        <v>328.3</v>
+        <v>199.1</v>
       </c>
       <c r="Q5">
-        <v>1634.8</v>
+        <v>1072.8</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -692,34 +788,74 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>194.2</v>
+        <v>67.5</v>
       </c>
       <c r="V5">
-        <v>36948</v>
+        <v>20884</v>
       </c>
       <c r="W5">
         <v>1688</v>
       </c>
       <c r="X5">
-        <v>1108.4</v>
+        <v>385.4</v>
       </c>
       <c r="Y5">
-        <v>500</v>
+        <v>872</v>
       </c>
       <c r="Z5">
-        <v>29.6</v>
+        <v>51.7</v>
       </c>
       <c r="AA5">
         <v>-0.7</v>
       </c>
+      <c r="AB5">
+        <v>554188</v>
+      </c>
+      <c r="AC5">
+        <v>328.3</v>
+      </c>
+      <c r="AD5">
+        <v>1634.8</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>194.2</v>
+      </c>
+      <c r="AI5">
+        <v>36948</v>
+      </c>
+      <c r="AJ5">
+        <v>1688</v>
+      </c>
+      <c r="AK5">
+        <v>1108.4</v>
+      </c>
+      <c r="AL5">
+        <v>500</v>
+      </c>
+      <c r="AM5">
+        <v>29.6</v>
+      </c>
+      <c r="AN5">
+        <v>-0.7</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="O1:AA1"/>
+    <mergeCell ref="AB1:AN1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/analysis/social_media_analytics/pivot_tables/accreditation/museum_activity_groups__var1-accreditation.xlsx
+++ b/data/analysis/social_media_analytics/pivot_tables/accreditation/museum_activity_groups__var1-accreditation.xlsx
@@ -612,13 +612,13 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>1573838</v>
+        <v>1848823</v>
       </c>
       <c r="C4">
-        <v>953.3</v>
+        <v>1119.8</v>
       </c>
       <c r="D4">
-        <v>2300.1</v>
+        <v>2734.5</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -627,37 +627,37 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="H4">
-        <v>1075</v>
+        <v>1279.5</v>
       </c>
       <c r="I4">
-        <v>47580</v>
+        <v>55081</v>
       </c>
       <c r="J4">
         <v>1651</v>
       </c>
       <c r="K4">
-        <v>1366.2</v>
+        <v>1633.2</v>
       </c>
       <c r="L4">
-        <v>1152</v>
+        <v>1132</v>
       </c>
       <c r="M4">
-        <v>69.8</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="N4">
         <v>0.7</v>
       </c>
       <c r="O4">
-        <v>573014</v>
+        <v>659102</v>
       </c>
       <c r="P4">
-        <v>347.1</v>
+        <v>399.2</v>
       </c>
       <c r="Q4">
-        <v>1555.8</v>
+        <v>1730.2</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -666,37 +666,37 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="U4">
-        <v>236.5</v>
+        <v>269</v>
       </c>
       <c r="V4">
-        <v>46992</v>
+        <v>48717</v>
       </c>
       <c r="W4">
         <v>1651</v>
       </c>
       <c r="X4">
-        <v>491.9</v>
+        <v>573.6</v>
       </c>
       <c r="Y4">
-        <v>1165</v>
+        <v>1149</v>
       </c>
       <c r="Z4">
-        <v>70.59999999999999</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="AA4">
         <v>0.7</v>
       </c>
       <c r="AB4">
-        <v>632428</v>
+        <v>877851</v>
       </c>
       <c r="AC4">
-        <v>383.1</v>
+        <v>531.7</v>
       </c>
       <c r="AD4">
-        <v>788</v>
+        <v>699.4</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -705,25 +705,25 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AH4">
-        <v>561</v>
+        <v>816.5</v>
       </c>
       <c r="AI4">
-        <v>13336</v>
+        <v>8295</v>
       </c>
       <c r="AJ4">
         <v>1651</v>
       </c>
       <c r="AK4">
-        <v>895.8</v>
+        <v>743.3</v>
       </c>
       <c r="AL4">
-        <v>706</v>
+        <v>1181</v>
       </c>
       <c r="AM4">
-        <v>42.8</v>
+        <v>71.5</v>
       </c>
       <c r="AN4">
         <v>0.7</v>
@@ -734,13 +734,13 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>829991</v>
+        <v>974125</v>
       </c>
       <c r="C5">
-        <v>491.7</v>
+        <v>577.1</v>
       </c>
       <c r="D5">
-        <v>1651</v>
+        <v>1906.2</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -752,34 +752,34 @@
         <v>2</v>
       </c>
       <c r="H5">
-        <v>424.2</v>
+        <v>479.2</v>
       </c>
       <c r="I5">
-        <v>47571</v>
+        <v>52263</v>
       </c>
       <c r="J5">
         <v>1688</v>
       </c>
       <c r="K5">
-        <v>970.7</v>
+        <v>1142</v>
       </c>
       <c r="L5">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="M5">
-        <v>50.7</v>
+        <v>50.5</v>
       </c>
       <c r="N5">
         <v>-0.7</v>
       </c>
       <c r="O5">
-        <v>336048</v>
+        <v>395152</v>
       </c>
       <c r="P5">
-        <v>199.1</v>
+        <v>234.1</v>
       </c>
       <c r="Q5">
-        <v>1072.8</v>
+        <v>1278</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -791,34 +791,34 @@
         <v>1</v>
       </c>
       <c r="U5">
-        <v>67.5</v>
+        <v>80</v>
       </c>
       <c r="V5">
-        <v>20884</v>
+        <v>24618</v>
       </c>
       <c r="W5">
         <v>1688</v>
       </c>
       <c r="X5">
-        <v>385.4</v>
+        <v>452.1</v>
       </c>
       <c r="Y5">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="Z5">
-        <v>51.7</v>
+        <v>51.8</v>
       </c>
       <c r="AA5">
         <v>-0.7</v>
       </c>
       <c r="AB5">
-        <v>554188</v>
+        <v>586835</v>
       </c>
       <c r="AC5">
-        <v>328.3</v>
+        <v>347.7</v>
       </c>
       <c r="AD5">
-        <v>1634.8</v>
+        <v>597.3</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -827,25 +827,25 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AH5">
-        <v>194.2</v>
+        <v>494.8</v>
       </c>
       <c r="AI5">
-        <v>36948</v>
+        <v>6193</v>
       </c>
       <c r="AJ5">
         <v>1688</v>
       </c>
       <c r="AK5">
-        <v>1108.4</v>
+        <v>610.7</v>
       </c>
       <c r="AL5">
-        <v>500</v>
+        <v>961</v>
       </c>
       <c r="AM5">
-        <v>29.6</v>
+        <v>56.9</v>
       </c>
       <c r="AN5">
         <v>-0.7</v>
